--- a/medicine/Mort/Téléphone_du_vent/Téléphone_du_vent.xlsx
+++ b/medicine/Mort/Téléphone_du_vent/Téléphone_du_vent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_du_vent</t>
+          <t>Téléphone_du_vent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le téléphone du vent (風の電話, kaze no denwa?) est une cabine téléphonique située à Ōtsuchi au Japon. Cette installation permet de communiquer symboliquement avec les morts. Elle a inspiré des cabines similaires dans d'autres endroits du monde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_du_vent</t>
+          <t>Téléphone_du_vent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Conception</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cabine a été créée par le paysagiste Itaru Sasaki à la suite du décès de son cousin[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cabine a été créée par le paysagiste Itaru Sasaki à la suite du décès de son cousin.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_du_vent</t>
+          <t>Téléphone_du_vent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Ouverture au public</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite du séisme de 2011 de la côte Pacifique du Tōhoku, elle a été ouverte au public et a accueilli plus de 30 000 visiteurs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du séisme de 2011 de la côte Pacifique du Tōhoku, elle a été ouverte au public et a accueilli plus de 30 000 visiteurs.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_du_vent</t>
+          <t>Téléphone_du_vent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cabine a inspiré le roman Ce que nous confions au vent de Laura Imai Messina et le film Kaze no denwa de Nobuhiro Suwa.
 </t>
